--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="436">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1299,6 +1299,12 @@
   </si>
   <si>
     <t>Observation.component</t>
+  </si>
+  <si>
+    <t>Component results</t>
+  </si>
+  <si>
+    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -6974,16 +6980,16 @@
         <v>337</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>176</v>
+        <v>406</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>176</v>
+        <v>407</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7053,10 +7059,10 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7067,10 +7073,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7185,10 +7191,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7305,10 +7311,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7427,10 +7433,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7456,13 +7462,13 @@
         <v>188</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>208</v>
@@ -7493,7 +7499,7 @@
         <v>307</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>210</v>
@@ -7514,7 +7520,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -7532,7 +7538,7 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>213</v>
@@ -7549,10 +7555,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7575,16 +7581,16 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>268</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>270</v>
@@ -7636,7 +7642,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7654,7 +7660,7 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>274</v>
@@ -7671,10 +7677,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7700,13 +7706,13 @@
         <v>188</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>281</v>
@@ -7758,7 +7764,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7793,10 +7799,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7822,10 +7828,10 @@
         <v>188</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>289</v>
@@ -7880,7 +7886,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7915,10 +7921,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7944,10 +7950,10 @@
         <v>82</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>338</v>
@@ -8002,7 +8008,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,7 @@
   </si>
   <si>
     <t xml:space="preserve">A profile representing the TNM venous invasion category for a cancer patient. 
-This profile extends the base mCODE [TNMCategory profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-tnm-category) to specify the new TNM category.
+This profile extends the base mCODE [TNMCategory profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-tnm-category) to specify the new TNM category. Onconova does not provide this resource as an independent resource and is expected to be provided as a contained resource in the `TNMStageGroup` profile under `Obseration.contained`.
 **Conformance:**
 Observation resources representing a TNM staging venous invasion parameter in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>

--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-stg-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-stg-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-stg-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-stg-req-1:The subject element is required and must be provided. {subject.exists()}o-stg-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-stg-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-tnm-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
